--- a/Assets/Resources/BasicData/human-equipments.xlsx
+++ b/Assets/Resources/BasicData/human-equipments.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,9 @@
     <t>range</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>弹弓</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
   </si>
   <si>
     <t>军用自动步枪</t>
+  </si>
+  <si>
+    <t>Scar</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +1050,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1062,7 +1068,7 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,19 +1096,22 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1116,20 +1125,26 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <f>ROW(A3)-1+10000</f>
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1143,20 +1158,26 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
-        <f t="shared" ref="A4:A11" si="0">ROW(A4)-1+10000</f>
+        <f t="shared" ref="A4:A12" si="0">ROW(A4)-1+10000</f>
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1170,20 +1191,26 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1197,20 +1224,26 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1224,20 +1257,26 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>10006</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1251,20 +1290,26 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>10007</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1278,20 +1323,26 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>10008</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1305,20 +1356,26 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>150</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10009</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1332,20 +1389,26 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>500</v>
+      </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1358,6 +1421,45 @@
       </c>
       <c r="H11">
         <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
